--- a/experiment/second_sem/machine_learning/results_assignment.xlsx
+++ b/experiment/second_sem/machine_learning/results_assignment.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user1/Desktop/coding/4J/experiment/second_sem/machine_learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB4A661-B94C-4C40-846C-BB82E8D18769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464D0F0C-0CB5-1345-A21A-CBD077B181C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1060" windowWidth="27660" windowHeight="16900" xr2:uid="{CD2668A5-C015-0140-B62B-73B15D5A8924}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{CD2668A5-C015-0140-B62B-73B15D5A8924}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ex1" sheetId="1" r:id="rId1"/>
+    <sheet name="ex2" sheetId="2" r:id="rId2"/>
+    <sheet name="ex3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>TV</t>
     <phoneticPr fontId="1"/>
@@ -113,6 +115,119 @@
   </si>
   <si>
     <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規化</t>
+    <rPh sb="0" eb="3">
+      <t>セイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誤差</t>
+    <rPh sb="0" eb="2">
+      <t>ゴサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更前</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更後</t>
+    <rPh sb="0" eb="1">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習データ</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウデ-</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 正答率[%]</t>
+    <rPh sb="1" eb="4">
+      <t>セイト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エポック数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理方法</t>
+    <rPh sb="0" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習率</t>
+    <rPh sb="0" eb="3">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未処理</t>
+    <rPh sb="0" eb="3">
+      <t>ミショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重み</t>
+    <rPh sb="0" eb="1">
+      <t>オモミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100回</t>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200回</t>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300回</t>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400回</t>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500回</t>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -120,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,8 +251,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +279,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -306,13 +435,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -322,32 +448,80 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7567F176-CD02-6643-A611-12BE85DB0178}">
   <dimension ref="B1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -755,131 +929,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="12">
         <v>0.61187505085007099</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="12">
         <v>0.33203245544529503</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="21" thickBot="1">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="13">
         <v>5.2120445444305101E-2</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="21" thickBot="1"/>
     <row r="8" spans="2:7">
-      <c r="B8" s="11"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="1" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="3">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="12">
         <v>0.89721063817895197</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="3">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="12">
         <v>0.96782224347485102</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="3">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="12">
         <v>0.90346362817639103</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="3">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="12">
         <v>0.89745260546098804</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="3">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="12">
         <v>0.96863110662555696</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="21" thickBot="1">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="5">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="13">
         <v>0.96779054984825197</v>
       </c>
     </row>
@@ -897,4 +1071,339 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D27AC4-A1EB-B447-972E-513F7ED561F1}">
+  <dimension ref="B1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="B1" s="8"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>69.864699999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>17.855599999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6.4687000000000001</v>
+      </c>
+      <c r="G3" s="23">
+        <v>3.9752000000000001</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3.4287999999999998</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4.9967949999999997E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.23425519</v>
+      </c>
+      <c r="K3" s="5">
+        <v>-3.5718299999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="21" thickBot="1">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="20">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E4" s="20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F4" s="20">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="G4" s="20">
+        <v>3.8E-3</v>
+      </c>
+      <c r="H4" s="20">
+        <v>3.8E-3</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0.50236270999999999</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0.34841664</v>
+      </c>
+      <c r="K4" s="6">
+        <v>-1.118016E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEC34B0-35E3-0841-A1B1-6DAEE111E188}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="21" thickBot="1"/>
+    <row r="3" spans="2:6">
+      <c r="B3" s="8"/>
+      <c r="C3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <v>84.64</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.80069999999999997</v>
+      </c>
+      <c r="E5" s="4">
+        <v>83.49</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.84640000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="21" thickBot="1">
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="20">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="E6" s="20">
+        <v>78.819999999999993</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.1187</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="21" thickBot="1"/>
+    <row r="14" spans="2:6">
+      <c r="B14" s="8"/>
+      <c r="C14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>78.819999999999993</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1.1187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4">
+        <v>88.51</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.4657</v>
+      </c>
+      <c r="E17" s="4">
+        <v>87.68</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.49180000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>89.92</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>89.34</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.39150000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1">
+        <v>100</v>
+      </c>
+      <c r="C19" s="4">
+        <v>91.5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.3024</v>
+      </c>
+      <c r="E19" s="4">
+        <v>90.91</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.31929999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="21" thickBot="1">
+      <c r="B20" s="3">
+        <v>200</v>
+      </c>
+      <c r="C20" s="20">
+        <v>92.99</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.25059999999999999</v>
+      </c>
+      <c r="E20" s="20">
+        <v>92.72</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.2591</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>